--- a/medicine/Psychotrope/Tendances_récentes_et_nouvelles_drogues/Tendances_récentes_et_nouvelles_drogues.xlsx
+++ b/medicine/Psychotrope/Tendances_récentes_et_nouvelles_drogues/Tendances_récentes_et_nouvelles_drogues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tendances_r%C3%A9centes_et_nouvelles_drogues</t>
+          <t>Tendances_récentes_et_nouvelles_drogues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">TREND est l'acronyme de Tendances récentes et nouvelles drogues. Il s'agit d'un dispositif français piloté par l'OFDT, composé de 8 coordinations locales implantées à Bordeaux (CEID), Lille (Cedragir Addictions), Lyon (Oppelia), Marseille (Addiction Méditerranée),  Metz (CMSEA), Paris (association Charonne), Rennes (Liberté Couleurs) et Toulouse (ORSMIP) et dotées d’une stratégie commune de collecte et d’analyse de l’information.
 Ce réseau a pour vocation de mettre à la disposition des décideurs, des professionnels et des usagers, des éléments de connaissance sur les tendances récentes liées aux usages de drogue, susceptibles de modifier leurs décisions ou leurs pratiques.
